--- a/else/Задачи.xlsx
+++ b/else/Задачи.xlsx
@@ -99,9 +99,6 @@
     <t>includes/Autoload</t>
   </si>
   <si>
-    <t>Лыщиков</t>
-  </si>
-  <si>
     <t>Олейников</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Корниленко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лыщиков </t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -481,7 +481,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -525,7 +525,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -551,7 +551,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -585,7 +585,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/else/Задачи.xlsx
+++ b/else/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Задачи</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Корниленко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) после загрузки окна навесить функцию, которая при клике на button с id 'cabinet_showNews' отображался объект с id 'cabinet_AllNewsDiv'. </t>
+  </si>
+  <si>
+    <t>автолоад из папки Application</t>
   </si>
 </sst>
 </file>
@@ -436,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +451,7 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,6 +548,9 @@
         <v>25</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -576,6 +585,9 @@
         <v>13</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">

--- a/else/Задачи.xlsx
+++ b/else/Задачи.xlsx
@@ -111,10 +111,10 @@
     <t>Корниленко</t>
   </si>
   <si>
-    <t xml:space="preserve">1) после загрузки окна навесить функцию, которая при клике на button с id 'cabinet_showNews' отображался объект с id 'cabinet_AllNewsDiv'. </t>
-  </si>
-  <si>
     <t>автолоад из папки Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) после загрузки окна навесить функцию, которая при клике на button с id 'cabinet_showNews' отображался (visibility: visible) объект с id 'cabinet_AllNewsDiv'. </t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -586,7 +586,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">

--- a/else/Задачи.xlsx
+++ b/else/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Задачи</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">1) после загрузки окна навесить функцию, которая при клике на button с id 'cabinet_showNews' отображался (visibility: visible) объект с id 'cabinet_AllNewsDiv'. </t>
+  </si>
+  <si>
+    <t>Башаров</t>
+  </si>
+  <si>
+    <t>Соболь</t>
   </si>
 </sst>
 </file>
@@ -442,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +544,9 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -547,7 +555,12 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -584,7 +597,12 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>

--- a/else/Задачи.xlsx
+++ b/else/Задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Задачи</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Соболь</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +460,11 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +477,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -485,7 +492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -496,7 +503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -507,7 +514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -518,7 +525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -529,7 +536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -540,7 +547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -551,7 +558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -561,11 +568,11 @@
       <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -576,13 +583,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -593,7 +600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -603,11 +610,11 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -618,7 +625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -629,7 +636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
